--- a/data/vgp_database/Latir_volcanic_field.xlsx
+++ b/data/vgp_database/Latir_volcanic_field.xlsx
@@ -1220,33 +1220,33 @@
     <col customWidth="1" min="3" max="3" width="8.89"/>
     <col customWidth="1" min="4" max="4" width="8.56"/>
     <col customWidth="1" min="5" max="5" width="7.67"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="5.78"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="8.78"/>
-    <col customWidth="1" hidden="1" min="8" max="8" width="7.33"/>
-    <col customWidth="1" hidden="1" min="9" max="9" width="6.67"/>
-    <col customWidth="1" hidden="1" min="10" max="10" width="6.89"/>
-    <col customWidth="1" hidden="1" min="11" max="11" width="7.78"/>
-    <col customWidth="1" hidden="1" min="12" max="12" width="8.11"/>
-    <col customWidth="1" hidden="1" min="13" max="13" width="7.89"/>
-    <col customWidth="1" hidden="1" min="14" max="14" width="6.0"/>
-    <col customWidth="1" hidden="1" min="15" max="15" width="6.22"/>
-    <col customWidth="1" hidden="1" min="16" max="16" width="6.0"/>
-    <col customWidth="1" hidden="1" min="17" max="17" width="8.56"/>
-    <col customWidth="1" hidden="1" min="18" max="18" width="7.33"/>
-    <col customWidth="1" hidden="1" min="19" max="19" width="8.44"/>
-    <col customWidth="1" hidden="1" min="20" max="20" width="7.89"/>
-    <col customWidth="1" hidden="1" min="21" max="21" width="8.44"/>
-    <col customWidth="1" hidden="1" min="22" max="22" width="8.0"/>
-    <col customWidth="1" hidden="1" min="23" max="23" width="11.89"/>
-    <col customWidth="1" hidden="1" min="24" max="24" width="14.67"/>
-    <col customWidth="1" hidden="1" min="25" max="25" width="12.89"/>
-    <col customWidth="1" hidden="1" min="26" max="26" width="9.0"/>
-    <col customWidth="1" hidden="1" min="27" max="27" width="9.89"/>
-    <col customWidth="1" hidden="1" min="28" max="28" width="9.11"/>
-    <col customWidth="1" hidden="1" min="29" max="29" width="7.44"/>
-    <col customWidth="1" hidden="1" min="30" max="30" width="8.0"/>
-    <col customWidth="1" hidden="1" min="31" max="31" width="11.67"/>
-    <col customWidth="1" hidden="1" min="32" max="32" width="10.56"/>
+    <col customWidth="1" min="6" max="6" width="5.78"/>
+    <col customWidth="1" min="7" max="7" width="8.78"/>
+    <col customWidth="1" min="8" max="8" width="7.33"/>
+    <col customWidth="1" min="9" max="9" width="6.67"/>
+    <col customWidth="1" min="10" max="10" width="6.89"/>
+    <col customWidth="1" min="11" max="11" width="7.78"/>
+    <col customWidth="1" min="12" max="12" width="8.11"/>
+    <col customWidth="1" min="13" max="13" width="7.89"/>
+    <col customWidth="1" min="14" max="14" width="6.0"/>
+    <col customWidth="1" min="15" max="15" width="6.22"/>
+    <col customWidth="1" min="16" max="16" width="6.0"/>
+    <col customWidth="1" min="17" max="17" width="8.56"/>
+    <col customWidth="1" min="18" max="18" width="7.33"/>
+    <col customWidth="1" min="19" max="19" width="8.44"/>
+    <col customWidth="1" min="20" max="20" width="7.89"/>
+    <col customWidth="1" min="21" max="21" width="8.44"/>
+    <col customWidth="1" min="22" max="22" width="8.0"/>
+    <col customWidth="1" min="23" max="23" width="11.89"/>
+    <col customWidth="1" min="24" max="24" width="14.67"/>
+    <col customWidth="1" min="25" max="25" width="12.89"/>
+    <col customWidth="1" min="26" max="26" width="9.0"/>
+    <col customWidth="1" min="27" max="27" width="9.89"/>
+    <col customWidth="1" min="28" max="28" width="9.11"/>
+    <col customWidth="1" min="29" max="29" width="7.44"/>
+    <col customWidth="1" min="30" max="30" width="8.0"/>
+    <col customWidth="1" min="31" max="31" width="11.67"/>
+    <col customWidth="1" min="32" max="32" width="10.56"/>
     <col customWidth="1" min="33" max="33" width="10.78"/>
     <col customWidth="1" min="34" max="34" width="10.67"/>
     <col customWidth="1" min="35" max="35" width="17.22"/>
